--- a/Code/Results/Cases/Case_1_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2535894709843944</v>
+        <v>0.09132603783370996</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05873923399352066</v>
+        <v>0.01991732608433239</v>
       </c>
       <c r="E2">
-        <v>0.2941495664965714</v>
+        <v>0.1662197965670416</v>
       </c>
       <c r="F2">
-        <v>0.3648329822384468</v>
+        <v>0.4407179464367204</v>
       </c>
       <c r="G2">
-        <v>0.2586512378329218</v>
+        <v>0.2871559136283182</v>
       </c>
       <c r="H2">
-        <v>0.2077567056707679</v>
+        <v>0.4516220209577995</v>
       </c>
       <c r="I2">
-        <v>0.1673872667261902</v>
+        <v>0.3980573076856082</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.509203618206641</v>
+        <v>0.474974610147143</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7175186350591787</v>
+        <v>0.2413221055721166</v>
       </c>
       <c r="N2">
-        <v>0.6510505979382728</v>
+        <v>1.174092548864579</v>
       </c>
       <c r="O2">
-        <v>0.9341137631330128</v>
+        <v>1.402229350648625</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2207606745697319</v>
+        <v>0.08106439087796957</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05159979238618462</v>
+        <v>0.0175912346774183</v>
       </c>
       <c r="E3">
-        <v>0.2574582747244065</v>
+        <v>0.1576725710641469</v>
       </c>
       <c r="F3">
-        <v>0.3344112374251011</v>
+        <v>0.4364268309321204</v>
       </c>
       <c r="G3">
-        <v>0.236833095749688</v>
+        <v>0.284227587381892</v>
       </c>
       <c r="H3">
-        <v>0.2023982888302172</v>
+        <v>0.4534663577912283</v>
       </c>
       <c r="I3">
-        <v>0.1777750729595322</v>
+        <v>0.4036917249837471</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.329186999997717</v>
+        <v>0.4174331193433716</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.621770856572688</v>
+        <v>0.2136605678512424</v>
       </c>
       <c r="N3">
-        <v>0.6744636018794417</v>
+        <v>1.184789590088933</v>
       </c>
       <c r="O3">
-        <v>0.8763246350958838</v>
+        <v>1.399645377150947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2005861924971271</v>
+        <v>0.0747639670415623</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04720603914119437</v>
+        <v>0.01615502861609741</v>
       </c>
       <c r="E4">
-        <v>0.2354249685043541</v>
+        <v>0.1525582784427328</v>
       </c>
       <c r="F4">
-        <v>0.3163812688375458</v>
+        <v>0.4340943183082615</v>
       </c>
       <c r="G4">
-        <v>0.2240044447731009</v>
+        <v>0.2826612807532101</v>
       </c>
       <c r="H4">
-        <v>0.1994825182385185</v>
+        <v>0.454815571434807</v>
       </c>
       <c r="I4">
-        <v>0.1845232441289975</v>
+        <v>0.4073525654278392</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.218479344928937</v>
+        <v>0.3819234752393754</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5633060113678141</v>
+        <v>0.1967081943831701</v>
       </c>
       <c r="N4">
-        <v>0.6896692363095127</v>
+        <v>1.191776646103328</v>
       </c>
       <c r="O4">
-        <v>0.8428207658330962</v>
+        <v>1.398995391753331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1923593734642139</v>
+        <v>0.07219678129175122</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04541272753005643</v>
+        <v>0.0155677913961938</v>
       </c>
       <c r="E5">
-        <v>0.2265587489004517</v>
+        <v>0.1505075918706282</v>
       </c>
       <c r="F5">
-        <v>0.3091871425046335</v>
+        <v>0.4332198076258464</v>
       </c>
       <c r="G5">
-        <v>0.21891013318087</v>
+        <v>0.2820811800761334</v>
       </c>
       <c r="H5">
-        <v>0.1983843474180631</v>
+        <v>0.4554199336845386</v>
       </c>
       <c r="I5">
-        <v>0.1873639709025654</v>
+        <v>0.4088950026180918</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.173310582601118</v>
+        <v>0.3674088733702092</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5395487370703549</v>
+        <v>0.1898080765762202</v>
       </c>
       <c r="N5">
-        <v>0.6960693648336829</v>
+        <v>1.194729363997673</v>
       </c>
       <c r="O5">
-        <v>0.8296369592872992</v>
+        <v>1.398965926131709</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1909929484058068</v>
+        <v>0.07177052594460065</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04511477118120411</v>
+        <v>0.01547016302769322</v>
       </c>
       <c r="E6">
-        <v>0.2250929773618395</v>
+        <v>0.1501690901071484</v>
       </c>
       <c r="F6">
-        <v>0.3080015345884703</v>
+        <v>0.4330791865589276</v>
       </c>
       <c r="G6">
-        <v>0.2180720238014189</v>
+        <v>0.2819883664976643</v>
       </c>
       <c r="H6">
-        <v>0.1982073183793887</v>
+        <v>0.4555235830923579</v>
       </c>
       <c r="I6">
-        <v>0.1878410906474164</v>
+        <v>0.409154180163501</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.165806771042696</v>
+        <v>0.3649960945885482</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5356075487772216</v>
+        <v>0.1886628097377425</v>
       </c>
       <c r="N6">
-        <v>0.6971442631059013</v>
+        <v>1.195226030645575</v>
       </c>
       <c r="O6">
-        <v>0.8274753391491885</v>
+        <v>1.398975248486224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2004752667110807</v>
+        <v>0.07472934361749139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0471818656979508</v>
+        <v>0.01614711686720938</v>
       </c>
       <c r="E7">
-        <v>0.2353049553455406</v>
+        <v>0.1525304870780673</v>
       </c>
       <c r="F7">
-        <v>0.3162836387785575</v>
+        <v>0.4340822165965648</v>
       </c>
       <c r="G7">
-        <v>0.2239352126853049</v>
+        <v>0.2826532218428497</v>
       </c>
       <c r="H7">
-        <v>0.1994673486714547</v>
+        <v>0.4548235011719015</v>
       </c>
       <c r="I7">
-        <v>0.1845611904671998</v>
+        <v>0.407373162336421</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.217870416682331</v>
+        <v>0.3817279037960475</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5629853566266263</v>
+        <v>0.1966151040231949</v>
       </c>
       <c r="N7">
-        <v>0.6897547322991819</v>
+        <v>1.191816040492643</v>
       </c>
       <c r="O7">
-        <v>0.8426411007328483</v>
+        <v>1.398994041347393</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2422729978324725</v>
+        <v>0.08778789520354735</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05627947749279372</v>
+        <v>0.01911696515944072</v>
       </c>
       <c r="E8">
-        <v>0.2813881686926081</v>
+        <v>0.1632448324147546</v>
       </c>
       <c r="F8">
-        <v>0.3542026804234055</v>
+        <v>0.4391756377033502</v>
       </c>
       <c r="G8">
-        <v>0.2510047610883319</v>
+        <v>0.2860980879263053</v>
       </c>
       <c r="H8">
-        <v>0.2058289067734549</v>
+        <v>0.4522129751634267</v>
       </c>
       <c r="I8">
-        <v>0.1708908090941339</v>
+        <v>0.3999582786725622</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.447164265362062</v>
+        <v>0.4551719422474321</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6844287124389794</v>
+        <v>0.2317778244700079</v>
       </c>
       <c r="N8">
-        <v>0.6589480769787457</v>
+        <v>1.177693959836386</v>
       </c>
       <c r="O8">
-        <v>0.9137598865809053</v>
+        <v>1.401143941285028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3241592968383031</v>
+        <v>0.1133893493917384</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07405379748183805</v>
+        <v>0.02487629220360077</v>
       </c>
       <c r="E9">
-        <v>0.3762660860783313</v>
+        <v>0.1853270435986403</v>
       </c>
       <c r="F9">
-        <v>0.4341889034316111</v>
+        <v>0.4515630959664492</v>
       </c>
       <c r="G9">
-        <v>0.3090366980073185</v>
+        <v>0.2946963278397305</v>
       </c>
       <c r="H9">
-        <v>0.2214691549033034</v>
+        <v>0.448812592736104</v>
       </c>
       <c r="I9">
-        <v>0.1471234278604623</v>
+        <v>0.3870146165419186</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.895913701134276</v>
+        <v>0.5977443645022618</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9258370204288155</v>
+        <v>0.3009848423491874</v>
       </c>
       <c r="N9">
-        <v>0.6053557675231644</v>
+        <v>1.153322261599008</v>
       </c>
       <c r="O9">
-        <v>1.070274977409042</v>
+        <v>1.412798404550898</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3843666041887133</v>
+        <v>0.1321853186727964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08709413851023129</v>
+        <v>0.02906702768230218</v>
       </c>
       <c r="E10">
-        <v>0.4495854380575679</v>
+        <v>0.2022199582146271</v>
       </c>
       <c r="F10">
-        <v>0.4970883032090185</v>
+        <v>0.4621300795045258</v>
       </c>
       <c r="G10">
-        <v>0.3553434648256797</v>
+        <v>0.3021442773333689</v>
       </c>
       <c r="H10">
-        <v>0.2351773129138763</v>
+        <v>0.4473609852521179</v>
       </c>
       <c r="I10">
-        <v>0.1316640543942071</v>
+        <v>0.3784778456581881</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.22585048437179</v>
+        <v>0.7015751557678414</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.106212115923235</v>
+        <v>0.3519902705051976</v>
       </c>
       <c r="N10">
-        <v>0.5704780679718198</v>
+        <v>1.137436831292383</v>
       </c>
       <c r="O10">
-        <v>1.197651066441495</v>
+        <v>1.425909114327851</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4117886747456652</v>
+        <v>0.1407312580395654</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09302768170764608</v>
+        <v>0.03096442121005794</v>
       </c>
       <c r="E11">
-        <v>0.4839323533994886</v>
+        <v>0.2100537993874454</v>
       </c>
       <c r="F11">
-        <v>0.526766465799362</v>
+        <v>0.4672563817015458</v>
       </c>
       <c r="G11">
-        <v>0.3773613746466395</v>
+        <v>0.3057797333196532</v>
       </c>
       <c r="H11">
-        <v>0.2419630830267607</v>
+        <v>0.4469276629105536</v>
       </c>
       <c r="I11">
-        <v>0.1251004218209451</v>
+        <v>0.3748053794811526</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.376190176147503</v>
+        <v>0.7486049814072828</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.189170158117982</v>
+        <v>0.3752298055986429</v>
       </c>
       <c r="N11">
-        <v>0.5556672187320686</v>
+        <v>1.130647941292324</v>
       </c>
       <c r="O11">
-        <v>1.258757731630624</v>
+        <v>1.432864212931946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4221793570353043</v>
+        <v>0.143966542377683</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09527519168703691</v>
+        <v>0.03168159093229406</v>
       </c>
       <c r="E12">
-        <v>0.4971001894004488</v>
+        <v>0.2130419658939644</v>
       </c>
       <c r="F12">
-        <v>0.5381726330682426</v>
+        <v>0.469243523433903</v>
       </c>
       <c r="G12">
-        <v>0.3858497284562787</v>
+        <v>0.307192059980224</v>
       </c>
       <c r="H12">
-        <v>0.2446178128613923</v>
+        <v>0.446796195768286</v>
       </c>
       <c r="I12">
-        <v>0.1226854244524791</v>
+        <v>0.3734450468079693</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.433172355313161</v>
+        <v>0.766383958916947</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.220736205198804</v>
+        <v>0.3840353063022093</v>
       </c>
       <c r="N12">
-        <v>0.5502176021040626</v>
+        <v>1.128140018696861</v>
       </c>
       <c r="O12">
-        <v>1.282393874955829</v>
+        <v>1.435640607334591</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4199412181457518</v>
+        <v>0.1432698088317039</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09479111660576933</v>
+        <v>0.03152719546302052</v>
       </c>
       <c r="E13">
-        <v>0.4942567711263592</v>
+        <v>0.2123974440531669</v>
       </c>
       <c r="F13">
-        <v>0.5357084106402965</v>
+        <v>0.4688135144594554</v>
       </c>
       <c r="G13">
-        <v>0.3840146822381456</v>
+        <v>0.3068863028226758</v>
       </c>
       <c r="H13">
-        <v>0.244042183668995</v>
+        <v>0.4468230590315869</v>
       </c>
       <c r="I13">
-        <v>0.1232023507851849</v>
+        <v>0.3737366686894443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.420897653032426</v>
+        <v>0.7625562962830656</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.213930786627309</v>
+        <v>0.3821386550455372</v>
       </c>
       <c r="N13">
-        <v>0.5513840869265465</v>
+        <v>1.12867734835023</v>
       </c>
       <c r="O13">
-        <v>1.277280639775853</v>
+        <v>1.435036314399468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4126433810795476</v>
+        <v>0.1409974457809113</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09321257117952086</v>
+        <v>0.03102345011329533</v>
       </c>
       <c r="E14">
-        <v>0.4850123330765186</v>
+        <v>0.2102992023245491</v>
       </c>
       <c r="F14">
-        <v>0.5277014104515487</v>
+        <v>0.4674189446812349</v>
       </c>
       <c r="G14">
-        <v>0.3780566159346961</v>
+        <v>0.3058952111238398</v>
       </c>
       <c r="H14">
-        <v>0.242179747560769</v>
+        <v>0.446916193353772</v>
       </c>
       <c r="I14">
-        <v>0.1249003072573087</v>
+        <v>0.3746928557329721</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.380877000631926</v>
+        <v>0.7500682792692999</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.191763947252063</v>
+        <v>0.3759541360232816</v>
       </c>
       <c r="N14">
-        <v>0.5552156475507033</v>
+        <v>1.130440352863715</v>
       </c>
       <c r="O14">
-        <v>1.260692095022335</v>
+        <v>1.433089768816473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4081741499451397</v>
+        <v>0.1396054364501396</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09224575775035504</v>
+        <v>0.03071471691801975</v>
       </c>
       <c r="E15">
-        <v>0.4793714421966087</v>
+        <v>0.2090167958023699</v>
       </c>
       <c r="F15">
-        <v>0.5228191784085539</v>
+        <v>0.4665707109460158</v>
       </c>
       <c r="G15">
-        <v>0.3744271679807127</v>
+        <v>0.3052927852746592</v>
       </c>
       <c r="H15">
-        <v>0.2410502211100578</v>
+        <v>0.4469774885699849</v>
       </c>
       <c r="I15">
-        <v>0.1259496308753958</v>
+        <v>0.3752825009116192</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.356370434554577</v>
+        <v>0.7424150472880058</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.178206534377118</v>
+        <v>0.3721666124270939</v>
       </c>
       <c r="N15">
-        <v>0.5575835073474593</v>
+        <v>1.13152843251212</v>
       </c>
       <c r="O15">
-        <v>1.250597057303224</v>
+        <v>1.431916035002672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3825753258778093</v>
+        <v>0.1316267116487353</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0867064299247815</v>
+        <v>0.02894284427193128</v>
       </c>
       <c r="E16">
-        <v>0.447362331014638</v>
+        <v>0.2017110179478721</v>
       </c>
       <c r="F16">
-        <v>0.4951714171585522</v>
+        <v>0.4618014896158442</v>
       </c>
       <c r="G16">
-        <v>0.3539248600173863</v>
+        <v>0.3019116767186887</v>
       </c>
       <c r="H16">
-        <v>0.2347454183313147</v>
+        <v>0.4473938701876392</v>
       </c>
       <c r="I16">
-        <v>0.1321026985999962</v>
+        <v>0.3787220962274205</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.216031787214831</v>
+        <v>0.6984974726831865</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.10081062006207</v>
+        <v>0.350472245198354</v>
       </c>
       <c r="N16">
-        <v>0.5714678304206302</v>
+        <v>1.137889302061126</v>
       </c>
       <c r="O16">
-        <v>1.193724734986432</v>
+        <v>1.425474535943948</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3668810413724799</v>
+        <v>0.1267307149044541</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0833088746914683</v>
+        <v>0.02785352685857845</v>
       </c>
       <c r="E17">
-        <v>0.4279929940634659</v>
+        <v>0.197267515702805</v>
       </c>
       <c r="F17">
-        <v>0.4784932231703962</v>
+        <v>0.4589575172266223</v>
       </c>
       <c r="G17">
-        <v>0.3416008026387658</v>
+        <v>0.2999008920608475</v>
       </c>
       <c r="H17">
-        <v>0.2310226277530631</v>
+        <v>0.4477074361989821</v>
       </c>
       <c r="I17">
-        <v>0.135999648391592</v>
+        <v>0.3808862179996746</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.130013455546418</v>
+        <v>0.6715027047825117</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.053577231876453</v>
+        <v>0.3371728260619804</v>
       </c>
       <c r="N17">
-        <v>0.5802606602714633</v>
+        <v>1.141903517822698</v>
       </c>
       <c r="O17">
-        <v>1.159674164953628</v>
+        <v>1.421776803166296</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3578571438411444</v>
+        <v>0.1239142632876877</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08135479964730052</v>
+        <v>0.02722613615227942</v>
       </c>
       <c r="E18">
-        <v>0.4169445921409363</v>
+        <v>0.1947257587413489</v>
       </c>
       <c r="F18">
-        <v>0.4689996753322134</v>
+        <v>0.4573517961086893</v>
       </c>
       <c r="G18">
-        <v>0.334601136874312</v>
+        <v>0.2987676179962335</v>
       </c>
       <c r="H18">
-        <v>0.2289327478789431</v>
+        <v>0.4479091607381918</v>
       </c>
       <c r="I18">
-        <v>0.1382850139933298</v>
+        <v>0.3821508186282312</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.080560473939386</v>
+        <v>0.655956947948539</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.02649358635199</v>
+        <v>0.3295268330020136</v>
       </c>
       <c r="N18">
-        <v>0.5854169277569738</v>
+        <v>1.144253566831047</v>
       </c>
       <c r="O18">
-        <v>1.140384211193606</v>
+        <v>1.419743231178245</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3548022784685543</v>
+        <v>0.1229605990930054</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08069319029204536</v>
+        <v>0.02701356863880022</v>
       </c>
       <c r="E19">
-        <v>0.4132191091313899</v>
+        <v>0.1938675664082226</v>
       </c>
       <c r="F19">
-        <v>0.465801951163975</v>
+        <v>0.4568132886538052</v>
       </c>
       <c r="G19">
-        <v>0.3322460216688512</v>
+        <v>0.2983879057923957</v>
       </c>
       <c r="H19">
-        <v>0.2282337960359655</v>
+        <v>0.4479811321562721</v>
       </c>
       <c r="I19">
-        <v>0.1390662555055995</v>
+        <v>0.3825824003144866</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.063819942946054</v>
+        <v>0.6506901739721798</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.017337282955751</v>
+        <v>0.3269386324722348</v>
       </c>
       <c r="N19">
-        <v>0.5871795189667566</v>
+        <v>1.145056326264751</v>
       </c>
       <c r="O19">
-        <v>1.133902414095132</v>
+        <v>1.419070712610619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3685513979840351</v>
+        <v>0.1272519456364023</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0836705361530008</v>
+        <v>0.02796957420338231</v>
       </c>
       <c r="E20">
-        <v>0.4300452077419195</v>
+        <v>0.1977390807313313</v>
       </c>
       <c r="F20">
-        <v>0.4802582649231013</v>
+        <v>0.4592571521710269</v>
       </c>
       <c r="G20">
-        <v>0.3429034325168203</v>
+        <v>0.3001125338751081</v>
       </c>
       <c r="H20">
-        <v>0.2314135660377161</v>
+        <v>0.4476718450458748</v>
       </c>
       <c r="I20">
-        <v>0.1355802416786815</v>
+        <v>0.3806537885087131</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.139167815388873</v>
+        <v>0.6743783256013103</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.058596487869053</v>
+        <v>0.3385882124817954</v>
       </c>
       <c r="N20">
-        <v>0.5793143656649917</v>
+        <v>1.141471936094604</v>
       </c>
       <c r="O20">
-        <v>1.163268078946089</v>
+        <v>1.422160779352311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4147867409289887</v>
+        <v>0.1416649196067965</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09367620847436342</v>
+        <v>0.03117144879421119</v>
       </c>
       <c r="E21">
-        <v>0.4877231132340683</v>
+        <v>0.2109149172379716</v>
       </c>
       <c r="F21">
-        <v>0.5300485886114075</v>
+        <v>0.4678273172906486</v>
       </c>
       <c r="G21">
-        <v>0.3798024425160804</v>
+        <v>0.3061853503083967</v>
       </c>
       <c r="H21">
-        <v>0.242724430295965</v>
+        <v>0.4468879523584803</v>
       </c>
       <c r="I21">
-        <v>0.1243996374034486</v>
+        <v>0.3744111765893914</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.39263049757318</v>
+        <v>0.7537371397550885</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.198270589688633</v>
+        <v>0.3777705391537793</v>
       </c>
       <c r="N21">
-        <v>0.5540858525218155</v>
+        <v>1.129920809272249</v>
       </c>
       <c r="O21">
-        <v>1.265550735819289</v>
+        <v>1.433657643795783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4450432094302386</v>
+        <v>0.1510794063331389</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1002192294462816</v>
+        <v>0.0332562767566742</v>
       </c>
       <c r="E22">
-        <v>0.5263694190425952</v>
+        <v>0.2196524414860832</v>
       </c>
       <c r="F22">
-        <v>0.5635743360316212</v>
+        <v>0.4736960868225637</v>
       </c>
       <c r="G22">
-        <v>0.4048031859283014</v>
+        <v>0.3103621723188184</v>
       </c>
       <c r="H22">
-        <v>0.2506158982876485</v>
+        <v>0.446565772258495</v>
       </c>
       <c r="I22">
-        <v>0.117504983403081</v>
+        <v>0.3705081824350493</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.558593253973896</v>
+        <v>0.8054262575557232</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.290450787823858</v>
+        <v>0.4034086701891795</v>
       </c>
       <c r="N22">
-        <v>0.5385275802582115</v>
+        <v>1.122737998733818</v>
       </c>
       <c r="O22">
-        <v>1.33531298167091</v>
+        <v>1.44200304733863</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4288905941014463</v>
+        <v>0.14605527449352</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09672661532289339</v>
+        <v>0.0321442897671318</v>
       </c>
       <c r="E23">
-        <v>0.5056496821911267</v>
+        <v>0.2149774296065701</v>
       </c>
       <c r="F23">
-        <v>0.5455858314717403</v>
+        <v>0.4705393213782685</v>
       </c>
       <c r="G23">
-        <v>0.3913740781880648</v>
+        <v>0.3081138727396109</v>
       </c>
       <c r="H23">
-        <v>0.2463562967346462</v>
+        <v>0.4467203356091716</v>
       </c>
       <c r="I23">
-        <v>0.1211459858985267</v>
+        <v>0.3725750910773256</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.469981834450522</v>
+        <v>0.7778552650817687</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.24116300812581</v>
+        <v>0.3897223905768499</v>
       </c>
       <c r="N23">
-        <v>0.5467437359917042</v>
+        <v>1.126538071119796</v>
       </c>
       <c r="O23">
-        <v>1.297798384535753</v>
+        <v>1.43747281397134</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3677962331419735</v>
+        <v>0.1270163024308744</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08350703145112703</v>
+        <v>0.02791711270801045</v>
       </c>
       <c r="E24">
-        <v>0.4291171314391633</v>
+        <v>0.1975258461056555</v>
       </c>
       <c r="F24">
-        <v>0.4794599948319984</v>
+        <v>0.4591215958943664</v>
       </c>
       <c r="G24">
-        <v>0.3423142479484937</v>
+        <v>0.300016779744368</v>
       </c>
       <c r="H24">
-        <v>0.2312366662998357</v>
+        <v>0.4476878689848576</v>
       </c>
       <c r="I24">
-        <v>0.1357697156528701</v>
+        <v>0.3807588062821914</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.135029130167794</v>
+        <v>0.6730783386719281</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.056327061268078</v>
+        <v>0.3379483162127599</v>
       </c>
       <c r="N24">
-        <v>0.5797418709286077</v>
+        <v>1.141666922669721</v>
       </c>
       <c r="O24">
-        <v>1.16164238217857</v>
+        <v>1.421986896208637</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3020060078336115</v>
+        <v>0.1064651446248348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06925026277588131</v>
+        <v>0.02332528459988481</v>
       </c>
       <c r="E25">
-        <v>0.3500308621857755</v>
+        <v>0.1792368676620555</v>
       </c>
       <c r="F25">
-        <v>0.4118780013644709</v>
+        <v>0.4479547608345626</v>
       </c>
       <c r="G25">
-        <v>0.2927426095849199</v>
+        <v>0.2921722200521799</v>
       </c>
       <c r="H25">
-        <v>0.2168705547447587</v>
+        <v>0.4495485963743846</v>
       </c>
       <c r="I25">
-        <v>0.1532126818074184</v>
+        <v>0.3903453207122913</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.774533151008853</v>
+        <v>0.5593334631096241</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8600791955422977</v>
+        <v>0.2822349235628607</v>
       </c>
       <c r="N25">
-        <v>0.6190899846661218</v>
+        <v>1.159560322235194</v>
       </c>
       <c r="O25">
-        <v>1.02590990582101</v>
+        <v>1.408847821499421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09132603783370996</v>
+        <v>0.2535894709844229</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01991732608433239</v>
+        <v>0.05873923399349223</v>
       </c>
       <c r="E2">
-        <v>0.1662197965670416</v>
+        <v>0.2941495664965643</v>
       </c>
       <c r="F2">
-        <v>0.4407179464367204</v>
+        <v>0.3648329822384468</v>
       </c>
       <c r="G2">
-        <v>0.2871559136283182</v>
+        <v>0.2586512378328791</v>
       </c>
       <c r="H2">
-        <v>0.4516220209577995</v>
+        <v>0.2077567056707537</v>
       </c>
       <c r="I2">
-        <v>0.3980573076856082</v>
+        <v>0.1673872667261893</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.474974610147143</v>
+        <v>1.509203618206641</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2413221055721166</v>
+        <v>0.7175186350591645</v>
       </c>
       <c r="N2">
-        <v>1.174092548864579</v>
+        <v>0.651050597938216</v>
       </c>
       <c r="O2">
-        <v>1.402229350648625</v>
+        <v>0.9341137631329985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08106439087796957</v>
+        <v>0.2207606745696324</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0175912346774183</v>
+        <v>0.05159979238617751</v>
       </c>
       <c r="E3">
-        <v>0.1576725710641469</v>
+        <v>0.2574582747244136</v>
       </c>
       <c r="F3">
-        <v>0.4364268309321204</v>
+        <v>0.3344112374251154</v>
       </c>
       <c r="G3">
-        <v>0.284227587381892</v>
+        <v>0.2368330957496951</v>
       </c>
       <c r="H3">
-        <v>0.4534663577912283</v>
+        <v>0.2023982888302172</v>
       </c>
       <c r="I3">
-        <v>0.4036917249837471</v>
+        <v>0.1777750729595193</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4174331193433716</v>
+        <v>1.329186999997802</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2136605678512424</v>
+        <v>0.6217708565726952</v>
       </c>
       <c r="N3">
-        <v>1.184789590088933</v>
+        <v>0.6744636018794488</v>
       </c>
       <c r="O3">
-        <v>1.399645377150947</v>
+        <v>0.8763246350959264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0747639670415623</v>
+        <v>0.2005861924971413</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01615502861609741</v>
+        <v>0.04720603914126542</v>
       </c>
       <c r="E4">
-        <v>0.1525582784427328</v>
+        <v>0.235424968504347</v>
       </c>
       <c r="F4">
-        <v>0.4340943183082615</v>
+        <v>0.3163812688375387</v>
       </c>
       <c r="G4">
-        <v>0.2826612807532101</v>
+        <v>0.2240044447731577</v>
       </c>
       <c r="H4">
-        <v>0.454815571434807</v>
+        <v>0.1994825182385185</v>
       </c>
       <c r="I4">
-        <v>0.4073525654278392</v>
+        <v>0.1845232441289935</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3819234752393754</v>
+        <v>1.21847934492888</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1967081943831701</v>
+        <v>0.563306011367807</v>
       </c>
       <c r="N4">
-        <v>1.191776646103328</v>
+        <v>0.6896692363094594</v>
       </c>
       <c r="O4">
-        <v>1.398995391753331</v>
+        <v>0.842820765833082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07219678129175122</v>
+        <v>0.1923593734643561</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0155677913961938</v>
+        <v>0.04541272753011327</v>
       </c>
       <c r="E5">
-        <v>0.1505075918706282</v>
+        <v>0.2265587489004091</v>
       </c>
       <c r="F5">
-        <v>0.4332198076258464</v>
+        <v>0.309187142504598</v>
       </c>
       <c r="G5">
-        <v>0.2820811800761334</v>
+        <v>0.2189101331808629</v>
       </c>
       <c r="H5">
-        <v>0.4554199336845386</v>
+        <v>0.1983843474181839</v>
       </c>
       <c r="I5">
-        <v>0.4088950026180918</v>
+        <v>0.1873639709025676</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3674088733702092</v>
+        <v>1.173310582601232</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1898080765762202</v>
+        <v>0.539548737070362</v>
       </c>
       <c r="N5">
-        <v>1.194729363997673</v>
+        <v>0.69606936483369</v>
       </c>
       <c r="O5">
-        <v>1.398965926131709</v>
+        <v>0.8296369592873418</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07177052594460065</v>
+        <v>0.1909929484057784</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01547016302769322</v>
+        <v>0.04511477118109042</v>
       </c>
       <c r="E6">
-        <v>0.1501690901071484</v>
+        <v>0.2250929773618466</v>
       </c>
       <c r="F6">
-        <v>0.4330791865589276</v>
+        <v>0.3080015345884561</v>
       </c>
       <c r="G6">
-        <v>0.2819883664976643</v>
+        <v>0.2180720238014757</v>
       </c>
       <c r="H6">
-        <v>0.4555235830923579</v>
+        <v>0.1982073183795023</v>
       </c>
       <c r="I6">
-        <v>0.409154180163501</v>
+        <v>0.1878410906474071</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3649960945885482</v>
+        <v>1.165806771042639</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1886628097377425</v>
+        <v>0.5356075487772216</v>
       </c>
       <c r="N6">
-        <v>1.195226030645575</v>
+        <v>0.6971442631059119</v>
       </c>
       <c r="O6">
-        <v>1.398975248486224</v>
+        <v>0.82747533914916</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07472934361749139</v>
+        <v>0.2004752667110807</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01614711686720938</v>
+        <v>0.04718186569778737</v>
       </c>
       <c r="E7">
-        <v>0.1525304870780673</v>
+        <v>0.2353049553455335</v>
       </c>
       <c r="F7">
-        <v>0.4340822165965648</v>
+        <v>0.3162836387785575</v>
       </c>
       <c r="G7">
-        <v>0.2826532218428497</v>
+        <v>0.2239352126853547</v>
       </c>
       <c r="H7">
-        <v>0.4548235011719015</v>
+        <v>0.199467348671341</v>
       </c>
       <c r="I7">
-        <v>0.407373162336421</v>
+        <v>0.1845611904671989</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3817279037960475</v>
+        <v>1.217870416682331</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1966151040231949</v>
+        <v>0.5629853566266334</v>
       </c>
       <c r="N7">
-        <v>1.191816040492643</v>
+        <v>0.6897547322991748</v>
       </c>
       <c r="O7">
-        <v>1.398994041347393</v>
+        <v>0.8426411007328483</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08778789520354735</v>
+        <v>0.2422729978324583</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01911696515944072</v>
+        <v>0.05627947749275819</v>
       </c>
       <c r="E8">
-        <v>0.1632448324147546</v>
+        <v>0.2813881686926081</v>
       </c>
       <c r="F8">
-        <v>0.4391756377033502</v>
+        <v>0.3542026804234126</v>
       </c>
       <c r="G8">
-        <v>0.2860980879263053</v>
+        <v>0.251004761088268</v>
       </c>
       <c r="H8">
-        <v>0.4522129751634267</v>
+        <v>0.2058289067734549</v>
       </c>
       <c r="I8">
-        <v>0.3999582786725622</v>
+        <v>0.1708908090941339</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4551719422474321</v>
+        <v>1.447164265362034</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2317778244700079</v>
+        <v>0.6844287124389723</v>
       </c>
       <c r="N8">
-        <v>1.177693959836386</v>
+        <v>0.6589480769786817</v>
       </c>
       <c r="O8">
-        <v>1.401143941285028</v>
+        <v>0.9137598865808911</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1133893493917384</v>
+        <v>0.3241592968382037</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02487629220360077</v>
+        <v>0.07405379748171015</v>
       </c>
       <c r="E9">
-        <v>0.1853270435986403</v>
+        <v>0.3762660860783313</v>
       </c>
       <c r="F9">
-        <v>0.4515630959664492</v>
+        <v>0.4341889034316111</v>
       </c>
       <c r="G9">
-        <v>0.2946963278397305</v>
+        <v>0.3090366980073043</v>
       </c>
       <c r="H9">
-        <v>0.448812592736104</v>
+        <v>0.2214691549033034</v>
       </c>
       <c r="I9">
-        <v>0.3870146165419186</v>
+        <v>0.1471234278604605</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5977443645022618</v>
+        <v>1.895913701134219</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3009848423491874</v>
+        <v>0.9258370204288227</v>
       </c>
       <c r="N9">
-        <v>1.153322261599008</v>
+        <v>0.6053557675231644</v>
       </c>
       <c r="O9">
-        <v>1.412798404550898</v>
+        <v>1.070274977408928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1321853186727964</v>
+        <v>0.3843666041888554</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02906702768230218</v>
+        <v>0.08709413851033787</v>
       </c>
       <c r="E10">
-        <v>0.2022199582146271</v>
+        <v>0.4495854380576034</v>
       </c>
       <c r="F10">
-        <v>0.4621300795045258</v>
+        <v>0.4970883032090185</v>
       </c>
       <c r="G10">
-        <v>0.3021442773333689</v>
+        <v>0.3553434648257223</v>
       </c>
       <c r="H10">
-        <v>0.4473609852521179</v>
+        <v>0.2351773129138763</v>
       </c>
       <c r="I10">
-        <v>0.3784778456581881</v>
+        <v>0.1316640543942063</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7015751557678414</v>
+        <v>2.22585048437179</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3519902705051976</v>
+        <v>1.106212115923221</v>
       </c>
       <c r="N10">
-        <v>1.137436831292383</v>
+        <v>0.5704780679718198</v>
       </c>
       <c r="O10">
-        <v>1.425909114327851</v>
+        <v>1.197651066441495</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1407312580395654</v>
+        <v>0.4117886747457788</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03096442121005794</v>
+        <v>0.09302768170766029</v>
       </c>
       <c r="E11">
-        <v>0.2100537993874454</v>
+        <v>0.4839323533994602</v>
       </c>
       <c r="F11">
-        <v>0.4672563817015458</v>
+        <v>0.5267664657993549</v>
       </c>
       <c r="G11">
-        <v>0.3057797333196532</v>
+        <v>0.3773613746466253</v>
       </c>
       <c r="H11">
-        <v>0.4469276629105536</v>
+        <v>0.2419630830266613</v>
       </c>
       <c r="I11">
-        <v>0.3748053794811526</v>
+        <v>0.1251004218209584</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7486049814072828</v>
+        <v>2.376190176147531</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3752298055986429</v>
+        <v>1.189170158117989</v>
       </c>
       <c r="N11">
-        <v>1.130647941292324</v>
+        <v>0.5556672187320615</v>
       </c>
       <c r="O11">
-        <v>1.432864212931946</v>
+        <v>1.258757731630624</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.143966542377683</v>
+        <v>0.4221793570353327</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03168159093229406</v>
+        <v>0.09527519168687348</v>
       </c>
       <c r="E12">
-        <v>0.2130419658939644</v>
+        <v>0.4971001894004559</v>
       </c>
       <c r="F12">
-        <v>0.469243523433903</v>
+        <v>0.5381726330682213</v>
       </c>
       <c r="G12">
-        <v>0.307192059980224</v>
+        <v>0.3858497284562219</v>
       </c>
       <c r="H12">
-        <v>0.446796195768286</v>
+        <v>0.2446178128613923</v>
       </c>
       <c r="I12">
-        <v>0.3734450468079693</v>
+        <v>0.1226854244524764</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.766383958916947</v>
+        <v>2.433172355313189</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3840353063022093</v>
+        <v>1.220736205198804</v>
       </c>
       <c r="N12">
-        <v>1.128140018696861</v>
+        <v>0.5502176021039986</v>
       </c>
       <c r="O12">
-        <v>1.435640607334591</v>
+        <v>1.282393874955801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1432698088317039</v>
+        <v>0.4199412181457518</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03152719546302052</v>
+        <v>0.09479111660594697</v>
       </c>
       <c r="E13">
-        <v>0.2123974440531669</v>
+        <v>0.494256771126345</v>
       </c>
       <c r="F13">
-        <v>0.4688135144594554</v>
+        <v>0.5357084106402823</v>
       </c>
       <c r="G13">
-        <v>0.3068863028226758</v>
+        <v>0.3840146822381882</v>
       </c>
       <c r="H13">
-        <v>0.4468230590315869</v>
+        <v>0.2440421836691229</v>
       </c>
       <c r="I13">
-        <v>0.3737366686894443</v>
+        <v>0.1232023507851814</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7625562962830656</v>
+        <v>2.420897653032284</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3821386550455372</v>
+        <v>1.213930786627273</v>
       </c>
       <c r="N13">
-        <v>1.12867734835023</v>
+        <v>0.5513840869264897</v>
       </c>
       <c r="O13">
-        <v>1.435036314399468</v>
+        <v>1.277280639775825</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1409974457809113</v>
+        <v>0.4126433810795334</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03102345011329533</v>
+        <v>0.09321257117928639</v>
       </c>
       <c r="E14">
-        <v>0.2102992023245491</v>
+        <v>0.4850123330764973</v>
       </c>
       <c r="F14">
-        <v>0.4674189446812349</v>
+        <v>0.5277014104515487</v>
       </c>
       <c r="G14">
-        <v>0.3058952111238398</v>
+        <v>0.3780566159346961</v>
       </c>
       <c r="H14">
-        <v>0.446916193353772</v>
+        <v>0.2421797475606553</v>
       </c>
       <c r="I14">
-        <v>0.3746928557329721</v>
+        <v>0.1249003072573069</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7500682792692999</v>
+        <v>2.380877000631926</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3759541360232816</v>
+        <v>1.191763947252063</v>
       </c>
       <c r="N14">
-        <v>1.130440352863715</v>
+        <v>0.5552156475507033</v>
       </c>
       <c r="O14">
-        <v>1.433089768816473</v>
+        <v>1.260692095022335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1396054364501396</v>
+        <v>0.4081741499452534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03071471691801975</v>
+        <v>0.09224575775042609</v>
       </c>
       <c r="E15">
-        <v>0.2090167958023699</v>
+        <v>0.4793714421966015</v>
       </c>
       <c r="F15">
-        <v>0.4665707109460158</v>
+        <v>0.5228191784085467</v>
       </c>
       <c r="G15">
-        <v>0.3052927852746592</v>
+        <v>0.3744271679807127</v>
       </c>
       <c r="H15">
-        <v>0.4469774885699849</v>
+        <v>0.2410502211100578</v>
       </c>
       <c r="I15">
-        <v>0.3752825009116192</v>
+        <v>0.1259496308753958</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7424150472880058</v>
+        <v>2.356370434554435</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3721666124270939</v>
+        <v>1.178206534377104</v>
       </c>
       <c r="N15">
-        <v>1.13152843251212</v>
+        <v>0.5575835073474593</v>
       </c>
       <c r="O15">
-        <v>1.431916035002672</v>
+        <v>1.250597057303224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1316267116487353</v>
+        <v>0.3825753258777951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02894284427193128</v>
+        <v>0.08670642992462518</v>
       </c>
       <c r="E16">
-        <v>0.2017110179478721</v>
+        <v>0.4473623310146166</v>
       </c>
       <c r="F16">
-        <v>0.4618014896158442</v>
+        <v>0.495171417158538</v>
       </c>
       <c r="G16">
-        <v>0.3019116767186887</v>
+        <v>0.3539248600174574</v>
       </c>
       <c r="H16">
-        <v>0.4473938701876392</v>
+        <v>0.2347454183313147</v>
       </c>
       <c r="I16">
-        <v>0.3787220962274205</v>
+        <v>0.1321026985999953</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6984974726831865</v>
+        <v>2.216031787214973</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.350472245198354</v>
+        <v>1.100810620062084</v>
       </c>
       <c r="N16">
-        <v>1.137889302061126</v>
+        <v>0.5714678304205734</v>
       </c>
       <c r="O16">
-        <v>1.425474535943948</v>
+        <v>1.193724734986461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1267307149044541</v>
+        <v>0.366881041372622</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02785352685857845</v>
+        <v>0.08330887469170989</v>
       </c>
       <c r="E17">
-        <v>0.197267515702805</v>
+        <v>0.4279929940634943</v>
       </c>
       <c r="F17">
-        <v>0.4589575172266223</v>
+        <v>0.478493223170382</v>
       </c>
       <c r="G17">
-        <v>0.2999008920608475</v>
+        <v>0.3416008026388369</v>
       </c>
       <c r="H17">
-        <v>0.4477074361989821</v>
+        <v>0.2310226277530489</v>
       </c>
       <c r="I17">
-        <v>0.3808862179996746</v>
+        <v>0.1359996483915884</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6715027047825117</v>
+        <v>2.130013455546504</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3371728260619804</v>
+        <v>1.053577231876446</v>
       </c>
       <c r="N17">
-        <v>1.141903517822698</v>
+        <v>0.5802606602714562</v>
       </c>
       <c r="O17">
-        <v>1.421776803166296</v>
+        <v>1.159674164953714</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1239142632876877</v>
+        <v>0.3578571438410023</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02722613615227942</v>
+        <v>0.08135479964718684</v>
       </c>
       <c r="E18">
-        <v>0.1947257587413489</v>
+        <v>0.4169445921409363</v>
       </c>
       <c r="F18">
-        <v>0.4573517961086893</v>
+        <v>0.4689996753322205</v>
       </c>
       <c r="G18">
-        <v>0.2987676179962335</v>
+        <v>0.3346011368742552</v>
       </c>
       <c r="H18">
-        <v>0.4479091607381918</v>
+        <v>0.2289327478789431</v>
       </c>
       <c r="I18">
-        <v>0.3821508186282312</v>
+        <v>0.1382850139933325</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.655956947948539</v>
+        <v>2.080560473939272</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3295268330020136</v>
+        <v>1.026493586351997</v>
       </c>
       <c r="N18">
-        <v>1.144253566831047</v>
+        <v>0.585416927756981</v>
       </c>
       <c r="O18">
-        <v>1.419743231178245</v>
+        <v>1.140384211193577</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1229605990930054</v>
+        <v>0.3548022784684264</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02701356863880022</v>
+        <v>0.08069319029188904</v>
       </c>
       <c r="E19">
-        <v>0.1938675664082226</v>
+        <v>0.4132191091313757</v>
       </c>
       <c r="F19">
-        <v>0.4568132886538052</v>
+        <v>0.465801951163975</v>
       </c>
       <c r="G19">
-        <v>0.2983879057923957</v>
+        <v>0.3322460216687944</v>
       </c>
       <c r="H19">
-        <v>0.4479811321562721</v>
+        <v>0.2282337960358518</v>
       </c>
       <c r="I19">
-        <v>0.3825824003144866</v>
+        <v>0.1390662555055933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6506901739721798</v>
+        <v>2.063819942946139</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3269386324722348</v>
+        <v>1.017337282955744</v>
       </c>
       <c r="N19">
-        <v>1.145056326264751</v>
+        <v>0.5871795189667495</v>
       </c>
       <c r="O19">
-        <v>1.419070712610619</v>
+        <v>1.133902414095076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1272519456364023</v>
+        <v>0.3685513979840493</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02796957420338231</v>
+        <v>0.0836705361530079</v>
       </c>
       <c r="E20">
-        <v>0.1977390807313313</v>
+        <v>0.4300452077419337</v>
       </c>
       <c r="F20">
-        <v>0.4592571521710269</v>
+        <v>0.4802582649231013</v>
       </c>
       <c r="G20">
-        <v>0.3001125338751081</v>
+        <v>0.3429034325168772</v>
       </c>
       <c r="H20">
-        <v>0.4476718450458748</v>
+        <v>0.2314135660377161</v>
       </c>
       <c r="I20">
-        <v>0.3806537885087131</v>
+        <v>0.1355802416786833</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6743783256013103</v>
+        <v>2.139167815388902</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3385882124817954</v>
+        <v>1.058596487869053</v>
       </c>
       <c r="N20">
-        <v>1.141471936094604</v>
+        <v>0.5793143656650486</v>
       </c>
       <c r="O20">
-        <v>1.422160779352311</v>
+        <v>1.163268078946089</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1416649196067965</v>
+        <v>0.4147867409290029</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03117144879421119</v>
+        <v>0.09367620847453395</v>
       </c>
       <c r="E21">
-        <v>0.2109149172379716</v>
+        <v>0.4877231132340611</v>
       </c>
       <c r="F21">
-        <v>0.4678273172906486</v>
+        <v>0.5300485886114146</v>
       </c>
       <c r="G21">
-        <v>0.3061853503083967</v>
+        <v>0.3798024425161515</v>
       </c>
       <c r="H21">
-        <v>0.4468879523584803</v>
+        <v>0.242724430295965</v>
       </c>
       <c r="I21">
-        <v>0.3744111765893914</v>
+        <v>0.1243996374034477</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7537371397550885</v>
+        <v>2.392630497573293</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3777705391537793</v>
+        <v>1.198270589688633</v>
       </c>
       <c r="N21">
-        <v>1.129920809272249</v>
+        <v>0.5540858525218084</v>
       </c>
       <c r="O21">
-        <v>1.433657643795783</v>
+        <v>1.265550735819346</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1510794063331389</v>
+        <v>0.445043209429997</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0332562767566742</v>
+        <v>0.1002192294462816</v>
       </c>
       <c r="E22">
-        <v>0.2196524414860832</v>
+        <v>0.5263694190425952</v>
       </c>
       <c r="F22">
-        <v>0.4736960868225637</v>
+        <v>0.5635743360316212</v>
       </c>
       <c r="G22">
-        <v>0.3103621723188184</v>
+        <v>0.4048031859283157</v>
       </c>
       <c r="H22">
-        <v>0.446565772258495</v>
+        <v>0.2506158982877622</v>
       </c>
       <c r="I22">
-        <v>0.3705081824350493</v>
+        <v>0.1175049834030855</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8054262575557232</v>
+        <v>2.558593253973896</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4034086701891795</v>
+        <v>1.290450787823829</v>
       </c>
       <c r="N22">
-        <v>1.122737998733818</v>
+        <v>0.5385275802582257</v>
       </c>
       <c r="O22">
-        <v>1.44200304733863</v>
+        <v>1.33531298167091</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.14605527449352</v>
+        <v>0.4288905941013468</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0321442897671318</v>
+        <v>0.09672661532298577</v>
       </c>
       <c r="E23">
-        <v>0.2149774296065701</v>
+        <v>0.5056496821911125</v>
       </c>
       <c r="F23">
-        <v>0.4705393213782685</v>
+        <v>0.5455858314717403</v>
       </c>
       <c r="G23">
-        <v>0.3081138727396109</v>
+        <v>0.391374078188079</v>
       </c>
       <c r="H23">
-        <v>0.4467203356091716</v>
+        <v>0.2463562967346604</v>
       </c>
       <c r="I23">
-        <v>0.3725750910773256</v>
+        <v>0.1211459858985222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7778552650817687</v>
+        <v>2.469981834450465</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3897223905768499</v>
+        <v>1.24116300812581</v>
       </c>
       <c r="N23">
-        <v>1.126538071119796</v>
+        <v>0.5467437359916261</v>
       </c>
       <c r="O23">
-        <v>1.43747281397134</v>
+        <v>1.297798384535696</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1270163024308744</v>
+        <v>0.3677962331418598</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02791711270801045</v>
+        <v>0.08350703145102756</v>
       </c>
       <c r="E24">
-        <v>0.1975258461056555</v>
+        <v>0.4291171314391846</v>
       </c>
       <c r="F24">
-        <v>0.4591215958943664</v>
+        <v>0.4794599948320055</v>
       </c>
       <c r="G24">
-        <v>0.300016779744368</v>
+        <v>0.3423142479484369</v>
       </c>
       <c r="H24">
-        <v>0.4476878689848576</v>
+        <v>0.2312366662998357</v>
       </c>
       <c r="I24">
-        <v>0.3807588062821914</v>
+        <v>0.1357697156528674</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6730783386719281</v>
+        <v>2.135029130167794</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3379483162127599</v>
+        <v>1.056327061268107</v>
       </c>
       <c r="N24">
-        <v>1.141666922669721</v>
+        <v>0.5797418709285438</v>
       </c>
       <c r="O24">
-        <v>1.421986896208637</v>
+        <v>1.161642382178599</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1064651446248348</v>
+        <v>0.30200600783364</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02332528459988481</v>
+        <v>0.06925026277593105</v>
       </c>
       <c r="E25">
-        <v>0.1792368676620555</v>
+        <v>0.3500308621857968</v>
       </c>
       <c r="F25">
-        <v>0.4479547608345626</v>
+        <v>0.4118780013644567</v>
       </c>
       <c r="G25">
-        <v>0.2921722200521799</v>
+        <v>0.2927426095848347</v>
       </c>
       <c r="H25">
-        <v>0.4495485963743846</v>
+        <v>0.2168705547447587</v>
       </c>
       <c r="I25">
-        <v>0.3903453207122913</v>
+        <v>0.1532126818074149</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5593334631096241</v>
+        <v>1.774533151008768</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2822349235628607</v>
+        <v>0.8600791955423048</v>
       </c>
       <c r="N25">
-        <v>1.159560322235194</v>
+        <v>0.6190899846660507</v>
       </c>
       <c r="O25">
-        <v>1.408847821499421</v>
+        <v>1.025909905820981</v>
       </c>
     </row>
   </sheetData>
